--- a/GmailLogin/resources/GmailLoginTestCase.xlsx
+++ b/GmailLogin/resources/GmailLoginTestCase.xlsx
@@ -1,33 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahat.ahmad\PycharmProjects\GmailLogin\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Case </t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Pre Condition</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>TC0001</t>
+  </si>
+  <si>
+    <t>Gmail Login</t>
+  </si>
+  <si>
+    <t>Login without inserting any email or phone number</t>
+  </si>
+  <si>
+    <t>1. Will not be able to move password insertion page
+2. Error message will be shown to insert Email/Phone Number</t>
+  </si>
+  <si>
+    <t>TC0002</t>
+  </si>
+  <si>
+    <t>Login with invalid Email or Phone</t>
+  </si>
+  <si>
+    <t>1. Will not be able to move password insertion page
+2. Error message will be shown as No Google Account found</t>
+  </si>
+  <si>
+    <t>TC0003</t>
+  </si>
+  <si>
+    <t>Login with valid Email or Phone number</t>
+  </si>
+  <si>
+    <t>1. Password insertion page will be appeared</t>
+  </si>
+  <si>
+    <t>TC0004</t>
+  </si>
+  <si>
+    <t>Login with Empty Password</t>
+  </si>
+  <si>
+    <t>1. Will not be able to login
+2. Error message will be shown to insert Password</t>
+  </si>
+  <si>
+    <t>TC0005</t>
+  </si>
+  <si>
+    <t>Login with Invalid Password</t>
+  </si>
+  <si>
+    <t>1. Will not be able to login
+2. Error message will be shown as Password is not correct</t>
+  </si>
+  <si>
+    <t>TC0006</t>
+  </si>
+  <si>
+    <t>Login with valid Password</t>
+  </si>
+  <si>
+    <t>1. Login will be success</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,86 +140,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,189 +426,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="10.90625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.453125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="44.08984375" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.08984375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="19.1796875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="11.1796875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="8.7265625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="8.7265625" customWidth="1" style="1" min="8" max="16384"/>
+    <col min="1" max="1" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Use Case </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pre Condition</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Expected result</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Actual result</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="87" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>TC0001</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Gmail Login</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Login without inserting any email or phone number</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>1. Will not be able to move password insertion page
-2. Error message will be shown to insert Email/Phone Number</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="101.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>TC0002</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Login with invalid Email or Phone</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>1. Will not be able to move password insertion page
-2. Error message will be shown as No Google Account found</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="72.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>TC0003</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Login with Empty Password</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1. Will not be able to login
-2. Error message will be shown to insert Password</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="87" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>TC0004</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Login with Invalid Password</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1. Will not be able to login
-2. Error message will be shown as Password is not correct</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>TC0005</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Login with valid Password</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>1. Login will be success</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
